--- a/Output/时间轴模板_v0.8.xlsx
+++ b/Output/时间轴模板_v0.8.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="轴" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-我在rb的界面中会打印所有可监控到的台词/系统提示. GameLog开头的一句话,界面上如果刷过去了,可以打完后在日志文件里找到</t>
+我在rb的界面中会打印所有可监控到的台词/系统提示. GameLog开头的一句话,界面上如果刷过去了,可以打完后在日志文件里找到
+如果配置0,就不关心类型,只考虑台词内容,会略微增加一点cpu消耗</t>
         </r>
       </text>
     </comment>
@@ -141,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0">
+    <comment ref="C13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -161,7 +162,8 @@
           <t xml:space="preserve">
 技能id查询网站推荐
 https://ff14.huijiwiki.com/wiki/Action:7548
-找到对应技能,看网址url后面的Action:后的数字即可</t>
+找到对应技能,看网址url后面的Action:后的数字即可
+还有一种方式,就是rb在加载一个职业的时候,会列出这个职业的所有技能和id.</t>
         </r>
       </text>
     </comment>
@@ -170,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="99">
   <si>
     <t>作者:</t>
   </si>
@@ -346,7 +348,7 @@
     <t>Cond</t>
   </si>
   <si>
-    <t>Cond:AfterBattleStart:战斗开始后多少毫秒</t>
+    <t>Cond:AfterBattleStart:战斗开始后多少秒</t>
   </si>
   <si>
     <t>Action</t>
@@ -391,6 +393,12 @@
     <t>Action:CastAbility:优先使用指定能力技</t>
   </si>
   <si>
+    <t>Action:SongList:设置战斗中的诗人歌单</t>
+  </si>
+  <si>
+    <t>3:43|1:42|2:40|3:43|1:40|2:42|3:43|1:40|2:42</t>
+  </si>
+  <si>
     <t>值类型</t>
   </si>
   <si>
@@ -403,7 +411,7 @@
     <t>参数说明3</t>
   </si>
   <si>
-    <t>毫秒数</t>
+    <t>秒数</t>
   </si>
   <si>
     <r>
@@ -479,13 +487,21 @@
     <t>xx.xxx</t>
   </si>
   <si>
-    <t>Action:NextSong:设置下一首歌</t>
-  </si>
-  <si>
-    <t>歌曲序号,0代表不指定,1代表贤者歌,2代表军神,3代表旅神</t>
-  </si>
-  <si>
-    <t>歌曲持续多少毫秒,0~45000. 0就是按照默认逻辑(关闭爆发就唱满,不关闭就按职业设置里的控制)</t>
+    <t>Action:SongList:设置战斗中接下来的诗人歌单</t>
+  </si>
+  <si>
+    <t>歌单的第一首歌如果和当前歌曲一样,那么就从当前歌曲开始计算.
+否则从下一首歌开始计算
+两两一组,歌曲序号(1代表贤者歌,2代表军神,3代表旅神):持续时间(秒数),分隔符是| 如果走完了配置的流程,战斗还没结束,将按照默认逻辑进行
+举例:
+3:43|1:42|2:40|3:43|1:40|2:42|3:43|1:40|2:42
+最后一首歌单的歌唱完后,战斗还没结束,就是默认的歌曲逻辑了</t>
+  </si>
+  <si>
+    <t>Action:SwitchSong:强制切歌</t>
+  </si>
+  <si>
+    <t>1代表贤者歌,2代表军神,3代表旅神</t>
   </si>
   <si>
     <t>Action:SwitchApex:是否允许使用绝峰箭</t>
@@ -501,6 +517,12 @@
   </si>
   <si>
     <t>能力技的Id,查询方式请看这个单元格的批注</t>
+  </si>
+  <si>
+    <t>Action:CastGCD:优先使用指定GCD</t>
+  </si>
+  <si>
+    <t>GCD的技能Id,查询方式同能力技</t>
   </si>
 </sst>
 </file>
@@ -508,8 +530,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -530,7 +552,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,6 +567,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,6 +603,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -566,76 +658,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -644,6 +666,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -653,27 +689,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF00B0F0"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -748,13 +770,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,31 +890,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,115 +926,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,30 +963,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -993,6 +991,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1010,6 +1032,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1018,15 +1049,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1035,10 +1057,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1047,137 +1069,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1191,45 +1213,48 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1586,8 +1611,8 @@
   <sheetPr/>
   <dimension ref="A1:AQ46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1597,7 +1622,7 @@
     <col min="3" max="3" width="18.375" style="4" customWidth="1"/>
     <col min="4" max="4" width="15.125" style="4" customWidth="1"/>
     <col min="5" max="5" width="46.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="37.25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="55.375" style="4" customWidth="1"/>
     <col min="7" max="7" width="19.875" style="4" customWidth="1"/>
     <col min="8" max="8" width="27.25" style="4" customWidth="1"/>
     <col min="9" max="16384" width="9" style="4"/>
@@ -1627,7 +1652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" ht="27" spans="1:43">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1808,7 +1833,7 @@
         <v>58</v>
       </c>
       <c r="F8" s="4">
-        <v>20000</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="3:6">
@@ -1841,7 +1866,7 @@
         <v>58</v>
       </c>
       <c r="F11" s="4">
-        <v>90000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="3:6">
@@ -1888,11 +1913,11 @@
       <c r="E15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="3:6">
+    <row r="16" ht="27" spans="3:6">
       <c r="C16" s="4">
         <v>3</v>
       </c>
@@ -1968,8 +1993,19 @@
         <v>7548</v>
       </c>
     </row>
-    <row r="21" spans="6:6">
-      <c r="F21" s="14"/>
+    <row r="21" ht="27" spans="3:6">
+      <c r="C21" s="4">
+        <v>3</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="22" spans="6:6">
       <c r="F22" s="14"/>
@@ -2058,7 +2094,7 @@
       <formula1>"Cond,Action"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10 E11 E12 E7:E9 E13:E1048576">
-      <formula1>'#参数说明'!$B$2:$B$13</formula1>
+      <formula1>'#参数说明'!$B$2:$B$15</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2071,17 +2107,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:E13"/>
+  <dimension ref="B1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="18.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="56.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="53.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="62.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="33.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -2089,16 +2125,16 @@
   <sheetData>
     <row r="1" ht="29" customHeight="1" spans="2:5">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="2:3">
@@ -2106,7 +2142,7 @@
         <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" ht="27" spans="2:3">
@@ -2114,7 +2150,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:3">
@@ -2122,7 +2158,7 @@
         <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -2130,72 +2166,69 @@
         <v>70</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" ht="21" customHeight="1" spans="2:4">
       <c r="B6" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" ht="27" spans="2:4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
       <c r="B7" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" ht="40.5" spans="2:4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" ht="108" spans="2:3">
       <c r="B8" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="1" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>93</v>
@@ -2203,10 +2236,26 @@
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>90</v>
+      <c r="C15" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
